--- a/working/hatfield/plate.num.xlsx
+++ b/working/hatfield/plate.num.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/hatfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B85C4-C0B5-FE47-858D-8FCE5726DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D325EF-BF94-EC41-91DD-2F507BE159C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="920" windowWidth="23220" windowHeight="14500" xr2:uid="{8D902F96-DE90-1C4B-96A9-9E672629A3CD}"/>
+    <workbookView xWindow="5580" yWindow="920" windowWidth="23220" windowHeight="14500" xr2:uid="{8D902F96-DE90-1C4B-96A9-9E672629A3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>cross</t>
   </si>
@@ -77,13 +77,7 @@
     <t>BC2</t>
   </si>
   <si>
-    <t>p1=limnetic</t>
-  </si>
-  <si>
-    <t>hatfield</t>
-  </si>
-  <si>
-    <t>plate num</t>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -435,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE1F572-6714-E849-B73B-F75744F12338}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +470,12 @@
       <c r="C2">
         <v>0.34431137724550903</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -493,6 +493,12 @@
       <c r="C3">
         <v>0.3293413173652695</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
@@ -510,6 +516,18 @@
       <c r="C4">
         <v>0.34431137724550903</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -521,6 +539,18 @@
       <c r="C5">
         <v>0.34431137724550903</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -532,6 +562,18 @@
       <c r="C6">
         <v>0.73353293413173659</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -543,20 +585,17 @@
       <c r="C7">
         <v>0.94311377245508987</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>15</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
